--- a/processed_data/final_allocations.xlsx
+++ b/processed_data/final_allocations.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dr. Emily Clark</t>
+          <t>Dr. Sarah Miller</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dr. Sarah Miller</t>
+          <t>Dr. John Doe</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dr. Michael Brown</t>
+          <t>Dr. Jane Smith</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dr. John Doe</t>
+          <t>Dr. Sarah Miller</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dr. Jane Smith</t>
+          <t>Dr. Michael Brown</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dr. Sarah Miller</t>
+          <t>Dr. John Doe</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dr. Emily Clark</t>
+          <t>Dr. John Doe</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dr. Jane Smith</t>
+          <t>Dr. David Lee</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dr. Sarah Miller</t>
+          <t>Dr. John Doe</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dr. Jane Smith</t>
+          <t>Dr. David Lee</t>
         </is>
       </c>
     </row>

--- a/processed_data/final_allocations.xlsx
+++ b/processed_data/final_allocations.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dr. Sarah Miller</t>
+          <t>Dr. Emily Clark</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dr. Jane Smith</t>
+          <t>Dr. David Lee</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dr. Sarah Miller</t>
+          <t>Dr. Emily Clark</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dr. Sarah Miller</t>
+          <t>Dr. John Doe</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dr. Michael Brown</t>
+          <t>Dr. Jane Smith</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dr. John Doe</t>
+          <t>Dr. Emily Clark</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dr. John Doe</t>
+          <t>Dr. Emily Clark</t>
         </is>
       </c>
     </row>
